--- a/Joe3.xlsx
+++ b/Joe3.xlsx
@@ -97,65 +97,65 @@
   </si>
   <si>
     <t xml:space="preserve">Less or equal to 5
-N = 302
+N = 389
 </t>
   </si>
   <si>
-    <t xml:space="preserve">65 (range: 2 to 215)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,665 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,711 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,404 (range: 0 to 6,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,425 (range: 0 to 4,790)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,417 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,198 (range: 0 to 4,940)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,622 (range: 0 to 6,000)</t>
+    <t xml:space="preserve">53 (range: 1 to 215)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,223 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,300 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,161 (range: 0 to 6,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,691 (range: 0 to 4,790)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,138 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,750 (range: 0 to 4,940)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,337 (range: 0 to 6,000)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">3 (1.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299 (99%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (7.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 (49%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 (range: 0.0 to 5.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78 (range: 0.02 to 58.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,833 (range: 11 to 102,352)</t>
+    <t xml:space="preserve">8 (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381 (98%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153 (39%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 (range: 0.0 to 5.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59 (range: 0.00 to 58.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,817 (range: 11 to 102,352)</t>
   </si>
   <si>
     <t xml:space="preserve">Higher than 5
@@ -208,7 +208,7 @@
     <t xml:space="preserve">21.9 (range: 5.1 to 503.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02 (range: 0.60 to 88.75)</t>
+    <t xml:space="preserve">3.91 (range: 0.00 to 88.75)</t>
   </si>
   <si>
     <t xml:space="preserve">26,439 (range: 403 to 169,257)</t>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>8</v>
@@ -771,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>4</v>
@@ -794,10 +794,10 @@
         <v>51</v>
       </c>
       <c r="D8" s="9" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="9" t="n">
-        <v>0.2</v>
+        <v>0.019</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.3</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="n">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>50</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>14</v>
@@ -896,10 +896,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="9" t="n">
-        <v>0.2</v>
+        <v>0.061</v>
       </c>
       <c r="E14" s="9" t="n">
-        <v>0.3</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="9" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>63</v>
@@ -930,10 +930,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="9" t="n">
-        <v>0.1</v>
+        <v>0.019</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.2</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="n">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>29</v>
@@ -964,10 +964,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="9" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="9" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1015,10 +1015,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>0.2</v>
+        <v>0.006</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
@@ -1159,36 +1159,36 @@
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">

--- a/Joe3.xlsx
+++ b/Joe3.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.59 (range: 0.00 to 58.00)</t>
   </si>
   <si>
-    <t xml:space="preserve">4,817 (range: 11 to 102,352)</t>
+    <t xml:space="preserve">3,752 (range: 0 to 102,352)</t>
   </si>
   <si>
     <t xml:space="preserve">Higher than 5
@@ -1158,96 +1158,79 @@
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10" t="n">
-        <v>86</v>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>36</v>
+      <c r="A31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" ht="NA" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Joe3.xlsx
+++ b/Joe3.xlsx
@@ -1,54 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shebliatrash/Desktop/AbdallahMeera/2025/Journals/Journal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C7D6E-63B0-6D41-8DE0-5146385C63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2020" yWindow="760" windowWidth="19040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">**Table X. Summary of all data by Impact_Factor-Clarivate**</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+  <si>
+    <t>**Table X. Summary of all data by Impact_Factor-Clarivate**</t>
   </si>
   <si>
     <t xml:space="preserve">Characteristic
 </t>
   </si>
   <si>
-    <t xml:space="preserve">H-Index_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original_article_cost_($)</t>
+    <t>H-Index_</t>
+  </si>
+  <si>
+    <t>Original_article_cost_($)</t>
   </si>
   <si>
     <t xml:space="preserve">    Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost_Review_of_article_($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost_editoria_($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost_of_Guidelines__($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost_Letter_to_editors_($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost_case_series__($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost_of_comments_($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open_Access_(Y/N)</t>
+    <t>Cost_Review_of_article_($)</t>
+  </si>
+  <si>
+    <t>Cost_editoria_($)</t>
+  </si>
+  <si>
+    <t>Cost_of_Guidelines__($)</t>
+  </si>
+  <si>
+    <t>Cost_Letter_to_editors_($)</t>
+  </si>
+  <si>
+    <t>Cost_case_series__($)</t>
+  </si>
+  <si>
+    <t>Cost_of_comments_($)</t>
+  </si>
+  <si>
+    <t>Open_Access_(Y/N)</t>
   </si>
   <si>
     <t xml:space="preserve">    N</t>
@@ -57,7 +65,7 @@
     <t xml:space="preserve">    Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Publishing_Model</t>
+    <t>Publishing_Model</t>
   </si>
   <si>
     <t xml:space="preserve">    fully open access</t>
@@ -78,22 +86,22 @@
     <t xml:space="preserve">    subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact_Factor-Clarivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal_Citation_Indicator-Clarivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total_Citations_(2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean (range: Min to Max); n (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilcoxon rank sum test; Fisher's exact test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False discovery rate correction for multiple testing</t>
+    <t>Impact_Factor-Clarivate</t>
+  </si>
+  <si>
+    <t>Journal_Citation_Indicator-Clarivate</t>
+  </si>
+  <si>
+    <t>Total_Citations_(2023</t>
+  </si>
+  <si>
+    <t>Mean (range: Min to Max); n (%)</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank sum test; Fisher's exact test</t>
+  </si>
+  <si>
+    <t>False discovery rate correction for multiple testing</t>
   </si>
   <si>
     <t xml:space="preserve">Less or equal to 5
@@ -101,61 +109,61 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">53 (range: 1 to 215)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,223 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,300 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,161 (range: 0 to 6,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,691 (range: 0 to 4,790)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,138 (range: 0 to 6,850)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,750 (range: 0 to 4,940)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,337 (range: 0 to 6,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">381 (98%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153 (39%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8 (range: 0.0 to 5.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59 (range: 0.00 to 58.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,752 (range: 0 to 102,352)</t>
+    <t>53 (range: 1 to 215)</t>
+  </si>
+  <si>
+    <t>2,223 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t>2,300 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t>2,161 (range: 0 to 6,000)</t>
+  </si>
+  <si>
+    <t>1,691 (range: 0 to 4,790)</t>
+  </si>
+  <si>
+    <t>2,138 (range: 0 to 6,850)</t>
+  </si>
+  <si>
+    <t>1,750 (range: 0 to 4,940)</t>
+  </si>
+  <si>
+    <t>2,337 (range: 0 to 6,000)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8 (2.1%)</t>
+  </si>
+  <si>
+    <t>381 (98%)</t>
+  </si>
+  <si>
+    <t>6 (1.5%)</t>
+  </si>
+  <si>
+    <t>63 (16%)</t>
+  </si>
+  <si>
+    <t>4 (1.0%)</t>
+  </si>
+  <si>
+    <t>153 (39%)</t>
+  </si>
+  <si>
+    <t>155 (40%)</t>
+  </si>
+  <si>
+    <t>1.8 (range: 0.0 to 5.0)</t>
+  </si>
+  <si>
+    <t>0.59 (range: 0.00 to 58.00)</t>
+  </si>
+  <si>
+    <t>3,752 (range: 0 to 102,352)</t>
   </si>
   <si>
     <t xml:space="preserve">Higher than 5
@@ -163,62 +171,62 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">166 (range: 9 to 624)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,489 (range: 0 to 12,290)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,126 (range: 0 to 10,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,668 (range: 0 to 5,420)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,904 (range: 0 to 5,500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,706 (range: 0 to 10,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,157 (range: 505 to 5,500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,224 (range: 0 to 9,350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67 (97%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (52%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9 (range: 5.1 to 503.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91 (range: 0.00 to 88.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,439 (range: 403 to 169,257)</t>
+    <t>166 (range: 9 to 624)</t>
+  </si>
+  <si>
+    <t>4,489 (range: 0 to 12,290)</t>
+  </si>
+  <si>
+    <t>4,126 (range: 0 to 10,000)</t>
+  </si>
+  <si>
+    <t>2,668 (range: 0 to 5,420)</t>
+  </si>
+  <si>
+    <t>2,904 (range: 0 to 5,500)</t>
+  </si>
+  <si>
+    <t>3,706 (range: 0 to 10,000)</t>
+  </si>
+  <si>
+    <t>3,157 (range: 505 to 5,500)</t>
+  </si>
+  <si>
+    <t>3,224 (range: 0 to 9,350)</t>
+  </si>
+  <si>
+    <t>2 (2.9%)</t>
+  </si>
+  <si>
+    <t>67 (97%)</t>
+  </si>
+  <si>
+    <t>1 (1.4%)</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+  </si>
+  <si>
+    <t>29 (42%)</t>
+  </si>
+  <si>
+    <t>36 (52%)</t>
+  </si>
+  <si>
+    <t>21.9 (range: 5.1 to 503.1)</t>
+  </si>
+  <si>
+    <t>3.91 (range: 0.00 to 88.75)</t>
+  </si>
+  <si>
+    <t>26,439 (range: 403 to 169,257)</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;0.001</t>
+    <t>&lt;0.001</t>
   </si>
   <si>
     <t xml:space="preserve">q-value
@@ -229,8 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,12 +249,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,116 +276,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -658,570 +652,571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="NA" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" ht="NA" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="NA" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" ht="NA" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" ht="NA" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="7">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="NA" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" ht="NA" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="7">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="NA" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="7">
         <v>0.2</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" ht="NA" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="7">
         <v>208</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="7">
         <v>41</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="NA" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="11" ht="NA" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="7">
         <v>347</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="7">
         <v>50</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="NA" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="NA" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="7">
         <v>139</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="7">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="NA" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="15" ht="NA" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="7">
         <v>338</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="7">
         <v>63</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="NA" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="9" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" ht="NA" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="7">
         <v>237</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="NA" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="9" t="n">
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7">
         <v>0.7</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" ht="NA" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="NA" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="NA" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="E21" s="9" t="n">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" ht="NA" customHeight="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="NA" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" ht="NA" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" ht="NA" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" ht="NA" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" ht="NA" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" ht="NA" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" ht="NA" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" ht="NA" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="NA" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" ht="NA" customHeight="1">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1233,6 +1228,6 @@
     <mergeCell ref="A33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>